--- a/PPFAS_Equity_Analysis.xlsx
+++ b/PPFAS_Equity_Analysis.xlsx
@@ -955,233 +955,233 @@
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>Bajaj Holdings &amp; Investment Limited</t>
+          <t>Power Grid Corporation of India Limited</t>
         </is>
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>INE118A01012</t>
+          <t>INE752E01010</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D5" s="8" t="n">
-        <v>5318918</v>
+        <v>185577147</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>614850.96</v>
+        <v>559793.46</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>0.06850000000000001</v>
+        <v>0.0624</v>
       </c>
       <c r="G5" s="8" t="n">
-        <v>5318918</v>
+        <v>193498810</v>
       </c>
       <c r="H5" s="9" t="n">
-        <v>615630.1899999999</v>
+        <v>485391.76</v>
       </c>
       <c r="I5" s="10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0552</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>5318918</v>
+        <v>192765312</v>
       </c>
       <c r="K5" s="9" t="n">
-        <v>663431.3</v>
+        <v>559694.08</v>
       </c>
       <c r="L5" s="10" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.0599</v>
       </c>
       <c r="M5" s="8" t="n">
-        <v>5318918</v>
+        <v>193616648</v>
       </c>
       <c r="N5" s="9" t="n">
-        <v>636834.05</v>
+        <v>595274.38</v>
       </c>
       <c r="O5" s="10" t="n">
-        <v>0.0646</v>
+        <v>0.0604</v>
       </c>
       <c r="P5" s="8" t="n">
-        <v>5318918</v>
+        <v>208867542</v>
       </c>
       <c r="Q5" s="9" t="n">
-        <v>713479.66</v>
+        <v>605193.7</v>
       </c>
       <c r="R5" s="10" t="n">
-        <v>0.0687</v>
+        <v>0.0583</v>
       </c>
       <c r="S5" s="8" t="n">
-        <v>5318918</v>
+        <v>224216515</v>
       </c>
       <c r="T5" s="9" t="n">
-        <v>764807.22</v>
+        <v>672425.33</v>
       </c>
       <c r="U5" s="10" t="n">
-        <v>0.0693</v>
+        <v>0.0609</v>
       </c>
       <c r="V5" s="8" t="n">
-        <v>5318918</v>
+        <v>230787510</v>
       </c>
       <c r="W5" s="9" t="n">
-        <v>742680.52</v>
+        <v>671591.65</v>
       </c>
       <c r="X5" s="10" t="n">
-        <v>0.06560000000000001</v>
+        <v>0.0593</v>
       </c>
       <c r="Y5" s="8" t="n">
-        <v>5318918</v>
+        <v>246049993</v>
       </c>
       <c r="Z5" s="9" t="n">
-        <v>679225.83</v>
+        <v>677252.61</v>
       </c>
       <c r="AA5" s="10" t="n">
-        <v>0.059</v>
+        <v>0.0589</v>
       </c>
       <c r="AB5" s="8" t="n">
-        <v>5318918</v>
+        <v>255922726</v>
       </c>
       <c r="AC5" s="9" t="n">
-        <v>651407.89</v>
+        <v>717223.4399999999</v>
       </c>
       <c r="AD5" s="10" t="n">
-        <v>0.0544</v>
+        <v>0.0599</v>
       </c>
       <c r="AE5" s="8" t="n">
-        <v>5318918</v>
+        <v>261786637</v>
       </c>
       <c r="AF5" s="9" t="n">
-        <v>654386.48</v>
+        <v>754338.1899999999</v>
       </c>
       <c r="AG5" s="10" t="n">
-        <v>0.052</v>
+        <v>0.06</v>
       </c>
       <c r="AH5" s="8" t="n">
-        <v>5318918</v>
+        <v>284154236</v>
       </c>
       <c r="AI5" s="9" t="n">
-        <v>611622.38</v>
+        <v>767074.36</v>
       </c>
       <c r="AJ5" s="10" t="n">
-        <v>0.0471</v>
+        <v>0.0591</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
-          <t>Power Grid Corporation of India Limited</t>
+          <t>Bajaj Holdings &amp; Investment Limited</t>
         </is>
       </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
-          <t>INE752E01010</t>
+          <t>INE118A01012</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D6" s="8" t="n">
-        <v>185577147</v>
+        <v>5318918</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>559793.46</v>
+        <v>614850.96</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>0.0624</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="G6" s="8" t="n">
-        <v>193498810</v>
+        <v>5318918</v>
       </c>
       <c r="H6" s="9" t="n">
-        <v>485391.76</v>
+        <v>615630.1899999999</v>
       </c>
       <c r="I6" s="10" t="n">
-        <v>0.0552</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J6" s="8" t="n">
-        <v>192765312</v>
+        <v>5318918</v>
       </c>
       <c r="K6" s="9" t="n">
-        <v>559694.08</v>
+        <v>663431.3</v>
       </c>
       <c r="L6" s="10" t="n">
-        <v>0.0599</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="M6" s="8" t="n">
-        <v>193616648</v>
+        <v>5318918</v>
       </c>
       <c r="N6" s="9" t="n">
-        <v>595274.38</v>
+        <v>636834.05</v>
       </c>
       <c r="O6" s="10" t="n">
-        <v>0.0604</v>
+        <v>0.0646</v>
       </c>
       <c r="P6" s="8" t="n">
-        <v>208867542</v>
+        <v>5318918</v>
       </c>
       <c r="Q6" s="9" t="n">
-        <v>605193.7</v>
+        <v>713479.66</v>
       </c>
       <c r="R6" s="10" t="n">
-        <v>0.0583</v>
+        <v>0.0687</v>
       </c>
       <c r="S6" s="8" t="n">
-        <v>224216515</v>
+        <v>5318918</v>
       </c>
       <c r="T6" s="9" t="n">
-        <v>672425.33</v>
+        <v>764807.22</v>
       </c>
       <c r="U6" s="10" t="n">
-        <v>0.0609</v>
+        <v>0.0693</v>
       </c>
       <c r="V6" s="8" t="n">
-        <v>230787510</v>
+        <v>5318918</v>
       </c>
       <c r="W6" s="9" t="n">
-        <v>671591.65</v>
+        <v>742680.52</v>
       </c>
       <c r="X6" s="10" t="n">
-        <v>0.0593</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="Y6" s="8" t="n">
-        <v>246049993</v>
+        <v>5318918</v>
       </c>
       <c r="Z6" s="9" t="n">
-        <v>677252.61</v>
+        <v>679225.83</v>
       </c>
       <c r="AA6" s="10" t="n">
-        <v>0.0589</v>
+        <v>0.059</v>
       </c>
       <c r="AB6" s="8" t="n">
-        <v>255922726</v>
+        <v>5318918</v>
       </c>
       <c r="AC6" s="9" t="n">
-        <v>717223.4399999999</v>
+        <v>651407.89</v>
       </c>
       <c r="AD6" s="10" t="n">
-        <v>0.0599</v>
+        <v>0.0544</v>
       </c>
       <c r="AE6" s="8" t="n">
-        <v>261786637</v>
+        <v>5318918</v>
       </c>
       <c r="AF6" s="9" t="n">
-        <v>754338.1899999999</v>
+        <v>654386.48</v>
       </c>
       <c r="AG6" s="10" t="n">
-        <v>0.06</v>
+        <v>0.052</v>
       </c>
       <c r="AH6" s="8" t="n">
-        <v>284154236</v>
+        <v>5318918</v>
       </c>
       <c r="AI6" s="9" t="n">
-        <v>767074.36</v>
+        <v>611622.38</v>
       </c>
       <c r="AJ6" s="10" t="n">
-        <v>0.0591</v>
+        <v>0.0471</v>
       </c>
     </row>
     <row r="7">
@@ -1303,233 +1303,233 @@
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>ICICI Bank Limited</t>
+          <t>ITC Limited</t>
         </is>
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>INE090A01021</t>
+          <t>INE154A01025</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>Banks</t>
+          <t>Diversified FMCG</t>
         </is>
       </c>
       <c r="D8" s="8" t="n">
-        <v>34986740</v>
+        <v>98994120</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>438313.88</v>
+        <v>442998.69</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>0.0489</v>
+        <v>0.0494</v>
       </c>
       <c r="G8" s="8" t="n">
-        <v>34986740</v>
+        <v>101194120</v>
       </c>
       <c r="H8" s="9" t="n">
-        <v>421275.34</v>
+        <v>399716.77</v>
       </c>
       <c r="I8" s="10" t="n">
-        <v>0.0479</v>
+        <v>0.0454</v>
       </c>
       <c r="J8" s="8" t="n">
-        <v>34986740</v>
+        <v>101194120</v>
       </c>
       <c r="K8" s="9" t="n">
-        <v>471743.71</v>
+        <v>414642.91</v>
       </c>
       <c r="L8" s="10" t="n">
-        <v>0.0505</v>
+        <v>0.0444</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>34986740</v>
+        <v>105271096</v>
       </c>
       <c r="N8" s="9" t="n">
-        <v>499260.78</v>
+        <v>448244.33</v>
       </c>
       <c r="O8" s="10" t="n">
-        <v>0.0507</v>
+        <v>0.0455</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>34986740</v>
+        <v>109270669</v>
       </c>
       <c r="Q8" s="9" t="n">
-        <v>505838.29</v>
+        <v>456806.03</v>
       </c>
       <c r="R8" s="10" t="n">
-        <v>0.0487</v>
+        <v>0.044</v>
       </c>
       <c r="S8" s="8" t="n">
-        <v>36489310</v>
+        <v>117422359</v>
       </c>
       <c r="T8" s="9" t="n">
-        <v>527562.4399999999</v>
+        <v>489005.41</v>
       </c>
       <c r="U8" s="10" t="n">
-        <v>0.0478</v>
+        <v>0.0443</v>
       </c>
       <c r="V8" s="8" t="n">
-        <v>39605543</v>
+        <v>122172359</v>
       </c>
       <c r="W8" s="9" t="n">
-        <v>586716.51</v>
+        <v>503289.03</v>
       </c>
       <c r="X8" s="10" t="n">
-        <v>0.0518</v>
+        <v>0.0444</v>
       </c>
       <c r="Y8" s="8" t="n">
-        <v>40720543</v>
+        <v>129421024</v>
       </c>
       <c r="Z8" s="9" t="n">
-        <v>569191.75</v>
+        <v>530302.65</v>
       </c>
       <c r="AA8" s="10" t="n">
-        <v>0.0495</v>
+        <v>0.0461</v>
       </c>
       <c r="AB8" s="8" t="n">
-        <v>42215573</v>
+        <v>135721024</v>
       </c>
       <c r="AC8" s="9" t="n">
-        <v>569065.92</v>
+        <v>544987.77</v>
       </c>
       <c r="AD8" s="10" t="n">
-        <v>0.0475</v>
+        <v>0.0455</v>
       </c>
       <c r="AE8" s="8" t="n">
-        <v>43295573</v>
+        <v>138771024</v>
       </c>
       <c r="AF8" s="9" t="n">
-        <v>582455.34</v>
+        <v>583324</v>
       </c>
       <c r="AG8" s="10" t="n">
-        <v>0.0463</v>
+        <v>0.0464</v>
       </c>
       <c r="AH8" s="8" t="n">
-        <v>45308598</v>
+        <v>144737169</v>
       </c>
       <c r="AI8" s="9" t="n">
-        <v>629245.8100000001</v>
+        <v>585100.01</v>
       </c>
       <c r="AJ8" s="10" t="n">
-        <v>0.0485</v>
+        <v>0.0451</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>ITC Limited</t>
+          <t>ICICI Bank Limited</t>
         </is>
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>INE154A01025</t>
+          <t>INE090A01021</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>Diversified FMCG</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D9" s="8" t="n">
-        <v>98994120</v>
+        <v>34986740</v>
       </c>
       <c r="E9" s="9" t="n">
-        <v>442998.69</v>
+        <v>438313.88</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>0.0494</v>
+        <v>0.0489</v>
       </c>
       <c r="G9" s="8" t="n">
-        <v>101194120</v>
+        <v>34986740</v>
       </c>
       <c r="H9" s="9" t="n">
-        <v>399716.77</v>
+        <v>421275.34</v>
       </c>
       <c r="I9" s="10" t="n">
-        <v>0.0454</v>
+        <v>0.0479</v>
       </c>
       <c r="J9" s="8" t="n">
-        <v>101194120</v>
+        <v>34986740</v>
       </c>
       <c r="K9" s="9" t="n">
-        <v>414642.91</v>
+        <v>471743.71</v>
       </c>
       <c r="L9" s="10" t="n">
-        <v>0.0444</v>
+        <v>0.0505</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>105271096</v>
+        <v>34986740</v>
       </c>
       <c r="N9" s="9" t="n">
-        <v>448244.33</v>
+        <v>499260.78</v>
       </c>
       <c r="O9" s="10" t="n">
-        <v>0.0455</v>
+        <v>0.0507</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>109270669</v>
+        <v>34986740</v>
       </c>
       <c r="Q9" s="9" t="n">
-        <v>456806.03</v>
+        <v>505838.29</v>
       </c>
       <c r="R9" s="10" t="n">
-        <v>0.044</v>
+        <v>0.0487</v>
       </c>
       <c r="S9" s="8" t="n">
-        <v>117422359</v>
+        <v>36489310</v>
       </c>
       <c r="T9" s="9" t="n">
-        <v>489005.41</v>
+        <v>527562.4399999999</v>
       </c>
       <c r="U9" s="10" t="n">
-        <v>0.0443</v>
+        <v>0.0478</v>
       </c>
       <c r="V9" s="8" t="n">
-        <v>122172359</v>
+        <v>39605543</v>
       </c>
       <c r="W9" s="9" t="n">
-        <v>503289.03</v>
+        <v>586716.51</v>
       </c>
       <c r="X9" s="10" t="n">
-        <v>0.0444</v>
+        <v>0.0518</v>
       </c>
       <c r="Y9" s="8" t="n">
-        <v>129421024</v>
+        <v>40720543</v>
       </c>
       <c r="Z9" s="9" t="n">
-        <v>530302.65</v>
+        <v>569191.75</v>
       </c>
       <c r="AA9" s="10" t="n">
-        <v>0.0461</v>
+        <v>0.0495</v>
       </c>
       <c r="AB9" s="8" t="n">
-        <v>135721024</v>
+        <v>42215573</v>
       </c>
       <c r="AC9" s="9" t="n">
-        <v>544987.77</v>
+        <v>569065.92</v>
       </c>
       <c r="AD9" s="10" t="n">
-        <v>0.0455</v>
+        <v>0.0475</v>
       </c>
       <c r="AE9" s="8" t="n">
-        <v>138771024</v>
+        <v>43295573</v>
       </c>
       <c r="AF9" s="9" t="n">
-        <v>583324</v>
+        <v>582455.34</v>
       </c>
       <c r="AG9" s="10" t="n">
-        <v>0.0464</v>
+        <v>0.0463</v>
       </c>
       <c r="AH9" s="8" t="n">
-        <v>144737169</v>
+        <v>45308598</v>
       </c>
       <c r="AI9" s="9" t="n">
-        <v>585100.01</v>
+        <v>629245.8100000001</v>
       </c>
       <c r="AJ9" s="10" t="n">
-        <v>0.0451</v>
+        <v>0.0485</v>
       </c>
     </row>
     <row r="10">
@@ -1767,360 +1767,336 @@
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>Mahindra &amp; Mahindra Limited</t>
+          <t>Bharti Airtel Limited</t>
         </is>
       </c>
       <c r="B12" s="6" t="inlineStr">
         <is>
-          <t>INE101A01026</t>
+          <t>INE397D01024</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="D12" s="8" t="n">
-        <v>9331737</v>
-      </c>
-      <c r="E12" s="9" t="n">
-        <v>279004.94</v>
-      </c>
-      <c r="F12" s="10" t="n">
-        <v>0.0311</v>
-      </c>
-      <c r="G12" s="8" t="n">
-        <v>10068665</v>
-      </c>
-      <c r="H12" s="9" t="n">
-        <v>260285.06</v>
-      </c>
-      <c r="I12" s="10" t="n">
-        <v>0.0296</v>
-      </c>
-      <c r="J12" s="8" t="n">
-        <v>10399289</v>
-      </c>
-      <c r="K12" s="9" t="n">
-        <v>277224.25</v>
-      </c>
-      <c r="L12" s="10" t="n">
-        <v>0.0297</v>
-      </c>
-      <c r="M12" s="8" t="n">
-        <v>11040212</v>
-      </c>
-      <c r="N12" s="9" t="n">
-        <v>323345.73</v>
-      </c>
-      <c r="O12" s="10" t="n">
-        <v>0.0328</v>
-      </c>
+          <t>Telecom - Services</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="n"/>
+      <c r="E12" s="9" t="n"/>
+      <c r="F12" s="10" t="n"/>
+      <c r="G12" s="8" t="n"/>
+      <c r="H12" s="9" t="n"/>
+      <c r="I12" s="10" t="n"/>
+      <c r="J12" s="8" t="n"/>
+      <c r="K12" s="9" t="n"/>
+      <c r="L12" s="10" t="n"/>
+      <c r="M12" s="8" t="n"/>
+      <c r="N12" s="9" t="n"/>
+      <c r="O12" s="10" t="n"/>
       <c r="P12" s="8" t="n">
-        <v>12231374</v>
+        <v>11799076</v>
       </c>
       <c r="Q12" s="9" t="n">
-        <v>364103.54</v>
+        <v>219014.45</v>
       </c>
       <c r="R12" s="10" t="n">
-        <v>0.0351</v>
+        <v>0.0211</v>
       </c>
       <c r="S12" s="8" t="n">
-        <v>12335671</v>
+        <v>20937034</v>
       </c>
       <c r="T12" s="9" t="n">
-        <v>392669.08</v>
+        <v>420750.64</v>
       </c>
       <c r="U12" s="10" t="n">
-        <v>0.0356</v>
+        <v>0.0381</v>
       </c>
       <c r="V12" s="8" t="n">
-        <v>12335671</v>
+        <v>21167034</v>
       </c>
       <c r="W12" s="9" t="n">
-        <v>395123.88</v>
+        <v>405200.53</v>
       </c>
       <c r="X12" s="10" t="n">
-        <v>0.0349</v>
+        <v>0.0358</v>
       </c>
       <c r="Y12" s="8" t="n">
-        <v>12335671</v>
+        <v>21167034</v>
       </c>
       <c r="Z12" s="9" t="n">
-        <v>394679.79</v>
+        <v>399802.94</v>
       </c>
       <c r="AA12" s="10" t="n">
+        <v>0.0348</v>
+      </c>
+      <c r="AB12" s="8" t="n">
+        <v>21167034</v>
+      </c>
+      <c r="AC12" s="9" t="n">
+        <v>397601.57</v>
+      </c>
+      <c r="AD12" s="10" t="n">
+        <v>0.0332</v>
+      </c>
+      <c r="AE12" s="8" t="n">
+        <v>21167034</v>
+      </c>
+      <c r="AF12" s="9" t="n">
+        <v>434876.71</v>
+      </c>
+      <c r="AG12" s="10" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="AH12" s="8" t="n">
+        <v>21167034</v>
+      </c>
+      <c r="AI12" s="9" t="n">
+        <v>444846.39</v>
+      </c>
+      <c r="AJ12" s="10" t="n">
         <v>0.0343</v>
-      </c>
-      <c r="AB12" s="8" t="n">
-        <v>12335671</v>
-      </c>
-      <c r="AC12" s="9" t="n">
-        <v>422743.45</v>
-      </c>
-      <c r="AD12" s="10" t="n">
-        <v>0.0353</v>
-      </c>
-      <c r="AE12" s="8" t="n">
-        <v>12435671</v>
-      </c>
-      <c r="AF12" s="9" t="n">
-        <v>433656.72</v>
-      </c>
-      <c r="AG12" s="10" t="n">
-        <v>0.0345</v>
-      </c>
-      <c r="AH12" s="8" t="n">
-        <v>12435671</v>
-      </c>
-      <c r="AI12" s="9" t="n">
-        <v>467245.47</v>
-      </c>
-      <c r="AJ12" s="10" t="n">
-        <v>0.036</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>Axis Bank Limited</t>
+          <t>Mahindra &amp; Mahindra Limited</t>
         </is>
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
-          <t>INE238A01034</t>
+          <t>INE101A01026</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>Banks</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="D13" s="8" t="n">
-        <v>27257270</v>
+        <v>9331737</v>
       </c>
       <c r="E13" s="9" t="n">
-        <v>268783.94</v>
+        <v>279004.94</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>0.03</v>
+        <v>0.0311</v>
       </c>
       <c r="G13" s="8" t="n">
-        <v>27257270</v>
+        <v>10068665</v>
       </c>
       <c r="H13" s="9" t="n">
-        <v>276811.21</v>
+        <v>260285.06</v>
       </c>
       <c r="I13" s="10" t="n">
-        <v>0.0315</v>
+        <v>0.0296</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>27257270</v>
+        <v>10399289</v>
       </c>
       <c r="K13" s="9" t="n">
-        <v>300375.12</v>
+        <v>277224.25</v>
       </c>
       <c r="L13" s="10" t="n">
-        <v>0.0321</v>
+        <v>0.0297</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>27257270</v>
+        <v>11040212</v>
       </c>
       <c r="N13" s="9" t="n">
-        <v>322998.65</v>
+        <v>323345.73</v>
       </c>
       <c r="O13" s="10" t="n">
         <v>0.0328</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>27257270</v>
+        <v>12231374</v>
       </c>
       <c r="Q13" s="9" t="n">
-        <v>324961.17</v>
+        <v>364103.54</v>
       </c>
       <c r="R13" s="10" t="n">
-        <v>0.0313</v>
+        <v>0.0351</v>
       </c>
       <c r="S13" s="8" t="n">
-        <v>27257270</v>
+        <v>12335671</v>
       </c>
       <c r="T13" s="9" t="n">
-        <v>326869.18</v>
+        <v>392669.08</v>
       </c>
       <c r="U13" s="10" t="n">
-        <v>0.0296</v>
+        <v>0.0356</v>
       </c>
       <c r="V13" s="8" t="n">
-        <v>30107270</v>
+        <v>12335671</v>
       </c>
       <c r="W13" s="9" t="n">
-        <v>321666.07</v>
+        <v>395123.88</v>
       </c>
       <c r="X13" s="10" t="n">
-        <v>0.0284</v>
+        <v>0.0349</v>
       </c>
       <c r="Y13" s="8" t="n">
-        <v>32644875</v>
+        <v>12335671</v>
       </c>
       <c r="Z13" s="9" t="n">
-        <v>341204.23</v>
+        <v>394679.79</v>
       </c>
       <c r="AA13" s="10" t="n">
-        <v>0.0297</v>
+        <v>0.0343</v>
       </c>
       <c r="AB13" s="8" t="n">
-        <v>33244875</v>
+        <v>12335671</v>
       </c>
       <c r="AC13" s="9" t="n">
-        <v>376199.01</v>
+        <v>422743.45</v>
       </c>
       <c r="AD13" s="10" t="n">
-        <v>0.0314</v>
+        <v>0.0353</v>
       </c>
       <c r="AE13" s="8" t="n">
-        <v>33244875</v>
+        <v>12435671</v>
       </c>
       <c r="AF13" s="9" t="n">
-        <v>409842.82</v>
+        <v>433656.72</v>
       </c>
       <c r="AG13" s="10" t="n">
-        <v>0.0326</v>
+        <v>0.0345</v>
       </c>
       <c r="AH13" s="8" t="n">
-        <v>33244875</v>
+        <v>12435671</v>
       </c>
       <c r="AI13" s="9" t="n">
-        <v>425434.67</v>
+        <v>467245.47</v>
       </c>
       <c r="AJ13" s="10" t="n">
-        <v>0.0328</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
-          <t>HCL Technologies Limited</t>
+          <t>Axis Bank Limited</t>
         </is>
       </c>
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>INE860A01027</t>
+          <t>INE238A01034</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr">
         <is>
-          <t>IT - Software</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D14" s="8" t="n">
-        <v>18706973</v>
+        <v>27257270</v>
       </c>
       <c r="E14" s="9" t="n">
-        <v>322779.47</v>
+        <v>268783.94</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>0.036</v>
+        <v>0.03</v>
       </c>
       <c r="G14" s="8" t="n">
-        <v>18706973</v>
+        <v>27257270</v>
       </c>
       <c r="H14" s="9" t="n">
-        <v>294644.18</v>
+        <v>276811.21</v>
       </c>
       <c r="I14" s="10" t="n">
-        <v>0.0335</v>
+        <v>0.0315</v>
       </c>
       <c r="J14" s="8" t="n">
-        <v>18706973</v>
+        <v>27257270</v>
       </c>
       <c r="K14" s="9" t="n">
-        <v>297908.55</v>
+        <v>300375.12</v>
       </c>
       <c r="L14" s="10" t="n">
-        <v>0.0319</v>
+        <v>0.0321</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>18706973</v>
+        <v>27257270</v>
       </c>
       <c r="N14" s="9" t="n">
-        <v>293231.8</v>
+        <v>322998.65</v>
       </c>
       <c r="O14" s="10" t="n">
-        <v>0.0298</v>
+        <v>0.0328</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>18341573</v>
+        <v>27257270</v>
       </c>
       <c r="Q14" s="9" t="n">
-        <v>300178.18</v>
+        <v>324961.17</v>
       </c>
       <c r="R14" s="10" t="n">
-        <v>0.0289</v>
+        <v>0.0313</v>
       </c>
       <c r="S14" s="8" t="n">
-        <v>18558995</v>
+        <v>27257270</v>
       </c>
       <c r="T14" s="9" t="n">
-        <v>320810.79</v>
+        <v>326869.18</v>
       </c>
       <c r="U14" s="10" t="n">
-        <v>0.0291</v>
+        <v>0.0296</v>
       </c>
       <c r="V14" s="8" t="n">
-        <v>18706995</v>
+        <v>30107270</v>
       </c>
       <c r="W14" s="9" t="n">
-        <v>274599.98</v>
+        <v>321666.07</v>
       </c>
       <c r="X14" s="10" t="n">
-        <v>0.0242</v>
+        <v>0.0284</v>
       </c>
       <c r="Y14" s="8" t="n">
-        <v>18706995</v>
+        <v>32644875</v>
       </c>
       <c r="Z14" s="9" t="n">
-        <v>272149.36</v>
+        <v>341204.23</v>
       </c>
       <c r="AA14" s="10" t="n">
-        <v>0.0237</v>
+        <v>0.0297</v>
       </c>
       <c r="AB14" s="8" t="n">
-        <v>18706995</v>
+        <v>33244875</v>
       </c>
       <c r="AC14" s="9" t="n">
-        <v>259110.59</v>
+        <v>376199.01</v>
       </c>
       <c r="AD14" s="10" t="n">
-        <v>0.0216</v>
+        <v>0.0314</v>
       </c>
       <c r="AE14" s="8" t="n">
-        <v>18138945</v>
+        <v>33244875</v>
       </c>
       <c r="AF14" s="9" t="n">
-        <v>279611.84</v>
+        <v>409842.82</v>
       </c>
       <c r="AG14" s="10" t="n">
-        <v>0.0222</v>
+        <v>0.0326</v>
       </c>
       <c r="AH14" s="8" t="n">
-        <v>19831378</v>
+        <v>33244875</v>
       </c>
       <c r="AI14" s="9" t="n">
-        <v>322101.24</v>
+        <v>425434.67</v>
       </c>
       <c r="AJ14" s="10" t="n">
-        <v>0.0248</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>Infosys Limited</t>
+          <t>HCL Technologies Limited</t>
         </is>
       </c>
       <c r="B15" s="6" t="inlineStr">
         <is>
-          <t>INE009A01021</t>
+          <t>INE860A01027</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr">
@@ -2129,114 +2105,114 @@
         </is>
       </c>
       <c r="D15" s="8" t="n">
-        <v>9306473</v>
+        <v>18706973</v>
       </c>
       <c r="E15" s="9" t="n">
-        <v>174943.08</v>
+        <v>322779.47</v>
       </c>
       <c r="F15" s="10" t="n">
-        <v>0.0195</v>
+        <v>0.036</v>
       </c>
       <c r="G15" s="8" t="n">
-        <v>9306473</v>
+        <v>18706973</v>
       </c>
       <c r="H15" s="9" t="n">
-        <v>157065.34</v>
+        <v>294644.18</v>
       </c>
       <c r="I15" s="10" t="n">
-        <v>0.0178</v>
+        <v>0.0335</v>
       </c>
       <c r="J15" s="8" t="n">
-        <v>9306473</v>
+        <v>18706973</v>
       </c>
       <c r="K15" s="9" t="n">
-        <v>146172.12</v>
+        <v>297908.55</v>
       </c>
       <c r="L15" s="10" t="n">
-        <v>0.0156</v>
+        <v>0.0319</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>9306473</v>
+        <v>18706973</v>
       </c>
       <c r="N15" s="9" t="n">
-        <v>139606.4</v>
+        <v>293231.8</v>
       </c>
       <c r="O15" s="10" t="n">
-        <v>0.0142</v>
+        <v>0.0298</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>9306473</v>
+        <v>18341573</v>
       </c>
       <c r="Q15" s="9" t="n">
-        <v>145432.25</v>
+        <v>300178.18</v>
       </c>
       <c r="R15" s="10" t="n">
-        <v>0.014</v>
+        <v>0.0289</v>
       </c>
       <c r="S15" s="8" t="n">
-        <v>9306473</v>
+        <v>18558995</v>
       </c>
       <c r="T15" s="9" t="n">
-        <v>149071.08</v>
+        <v>320810.79</v>
       </c>
       <c r="U15" s="10" t="n">
-        <v>0.0135</v>
+        <v>0.0291</v>
       </c>
       <c r="V15" s="8" t="n">
-        <v>9306473</v>
+        <v>18706995</v>
       </c>
       <c r="W15" s="9" t="n">
-        <v>140434.68</v>
+        <v>274599.98</v>
       </c>
       <c r="X15" s="10" t="n">
-        <v>0.0124</v>
+        <v>0.0242</v>
       </c>
       <c r="Y15" s="8" t="n">
-        <v>9306473</v>
+        <v>18706995</v>
       </c>
       <c r="Z15" s="9" t="n">
-        <v>136767.93</v>
+        <v>272149.36</v>
       </c>
       <c r="AA15" s="10" t="n">
-        <v>0.0119</v>
+        <v>0.0237</v>
       </c>
       <c r="AB15" s="8" t="n">
-        <v>9306473</v>
+        <v>18706995</v>
       </c>
       <c r="AC15" s="9" t="n">
-        <v>134180.73</v>
+        <v>259110.59</v>
       </c>
       <c r="AD15" s="10" t="n">
-        <v>0.0112</v>
+        <v>0.0216</v>
       </c>
       <c r="AE15" s="8" t="n">
-        <v>9306473</v>
+        <v>18138945</v>
       </c>
       <c r="AF15" s="9" t="n">
-        <v>137949.85</v>
+        <v>279611.84</v>
       </c>
       <c r="AG15" s="10" t="n">
-        <v>0.011</v>
+        <v>0.0222</v>
       </c>
       <c r="AH15" s="8" t="n">
-        <v>17621740</v>
+        <v>19831378</v>
       </c>
       <c r="AI15" s="9" t="n">
-        <v>274916.77</v>
+        <v>322101.24</v>
       </c>
       <c r="AJ15" s="10" t="n">
-        <v>0.0212</v>
+        <v>0.0248</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>Cipla Limited</t>
+          <t>Zydus Lifesciences Limited</t>
         </is>
       </c>
       <c r="B16" s="6" t="inlineStr">
         <is>
-          <t>INE059A01026</t>
+          <t>INE010B01027</t>
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr">
@@ -2245,114 +2221,114 @@
         </is>
       </c>
       <c r="D16" s="8" t="n">
-        <v>6223549</v>
+        <v>8859127</v>
       </c>
       <c r="E16" s="9" t="n">
-        <v>92071.17999999999</v>
+        <v>85955.67999999999</v>
       </c>
       <c r="F16" s="10" t="n">
-        <v>0.0103</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="G16" s="8" t="n">
-        <v>7755553</v>
+        <v>11479604</v>
       </c>
       <c r="H16" s="9" t="n">
-        <v>109159.41</v>
+        <v>100630.21</v>
       </c>
       <c r="I16" s="10" t="n">
-        <v>0.0124</v>
+        <v>0.0114</v>
       </c>
       <c r="J16" s="8" t="n">
-        <v>7994194</v>
+        <v>13003659</v>
       </c>
       <c r="K16" s="9" t="n">
-        <v>115292.27</v>
+        <v>115264.43</v>
       </c>
       <c r="L16" s="10" t="n">
         <v>0.0123</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>7994194</v>
+        <v>13936283</v>
       </c>
       <c r="N16" s="9" t="n">
-        <v>123918</v>
+        <v>123789.03</v>
       </c>
       <c r="O16" s="10" t="n">
         <v>0.0126</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>8881919</v>
+        <v>14258435</v>
       </c>
       <c r="Q16" s="9" t="n">
-        <v>130182.29</v>
+        <v>132603.45</v>
       </c>
       <c r="R16" s="10" t="n">
-        <v>0.0125</v>
+        <v>0.0128</v>
       </c>
       <c r="S16" s="8" t="n">
-        <v>9147124</v>
+        <v>14258435</v>
       </c>
       <c r="T16" s="9" t="n">
-        <v>137746.54</v>
+        <v>141151.38</v>
       </c>
       <c r="U16" s="10" t="n">
-        <v>0.0125</v>
+        <v>0.0128</v>
       </c>
       <c r="V16" s="8" t="n">
-        <v>9450707</v>
+        <v>14470385</v>
       </c>
       <c r="W16" s="9" t="n">
-        <v>146920.69</v>
+        <v>140333.79</v>
       </c>
       <c r="X16" s="10" t="n">
-        <v>0.013</v>
+        <v>0.0124</v>
       </c>
       <c r="Y16" s="8" t="n">
-        <v>8991707</v>
+        <v>14786344</v>
       </c>
       <c r="Z16" s="9" t="n">
-        <v>142914.19</v>
+        <v>145061.43</v>
       </c>
       <c r="AA16" s="10" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="AB16" s="8" t="n">
+        <v>15148311</v>
+      </c>
+      <c r="AC16" s="9" t="n">
+        <v>148741.27</v>
+      </c>
+      <c r="AD16" s="10" t="n">
         <v>0.0124</v>
       </c>
-      <c r="AB16" s="8" t="n">
-        <v>9988840</v>
-      </c>
-      <c r="AC16" s="9" t="n">
-        <v>150162.23</v>
-      </c>
-      <c r="AD16" s="10" t="n">
-        <v>0.0125</v>
-      </c>
       <c r="AE16" s="8" t="n">
-        <v>10173460</v>
+        <v>15759789</v>
       </c>
       <c r="AF16" s="9" t="n">
-        <v>152734.15</v>
+        <v>153571.26</v>
       </c>
       <c r="AG16" s="10" t="n">
-        <v>0.0121</v>
+        <v>0.0122</v>
       </c>
       <c r="AH16" s="8" t="n">
-        <v>10765866</v>
+        <v>17405149</v>
       </c>
       <c r="AI16" s="9" t="n">
-        <v>164857.71</v>
+        <v>164043.53</v>
       </c>
       <c r="AJ16" s="10" t="n">
-        <v>0.0127</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>Zydus Lifesciences Limited</t>
+          <t>Dr. Reddy's Laboratories Limited</t>
         </is>
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>INE010B01027</t>
+          <t>INE089A01031</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr">
@@ -2361,114 +2337,114 @@
         </is>
       </c>
       <c r="D17" s="8" t="n">
-        <v>8859127</v>
+        <v>7388241</v>
       </c>
       <c r="E17" s="9" t="n">
-        <v>85955.67999999999</v>
+        <v>89940.75</v>
       </c>
       <c r="F17" s="10" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="G17" s="8" t="n">
-        <v>11479604</v>
+        <v>9911843</v>
       </c>
       <c r="H17" s="9" t="n">
-        <v>100630.21</v>
+        <v>110665.73</v>
       </c>
       <c r="I17" s="10" t="n">
-        <v>0.0114</v>
+        <v>0.0126</v>
       </c>
       <c r="J17" s="8" t="n">
-        <v>13003659</v>
+        <v>10133496</v>
       </c>
       <c r="K17" s="9" t="n">
-        <v>115264.43</v>
+        <v>115947.46</v>
       </c>
       <c r="L17" s="10" t="n">
-        <v>0.0123</v>
+        <v>0.0124</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>13936283</v>
+        <v>10403670</v>
       </c>
       <c r="N17" s="9" t="n">
-        <v>123789.03</v>
+        <v>123169.05</v>
       </c>
       <c r="O17" s="10" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="P17" s="8" t="n">
+        <v>10341500</v>
+      </c>
+      <c r="Q17" s="9" t="n">
+        <v>129392.85</v>
+      </c>
+      <c r="R17" s="10" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="S17" s="8" t="n">
+        <v>10341500</v>
+      </c>
+      <c r="T17" s="9" t="n">
+        <v>132712.47</v>
+      </c>
+      <c r="U17" s="10" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="V17" s="8" t="n">
+        <v>11217622</v>
+      </c>
+      <c r="W17" s="9" t="n">
+        <v>142497.45</v>
+      </c>
+      <c r="X17" s="10" t="n">
         <v>0.0126</v>
       </c>
-      <c r="P17" s="8" t="n">
-        <v>14258435</v>
-      </c>
-      <c r="Q17" s="9" t="n">
-        <v>132603.45</v>
-      </c>
-      <c r="R17" s="10" t="n">
-        <v>0.0128</v>
-      </c>
-      <c r="S17" s="8" t="n">
-        <v>14258435</v>
-      </c>
-      <c r="T17" s="9" t="n">
-        <v>141151.38</v>
-      </c>
-      <c r="U17" s="10" t="n">
-        <v>0.0128</v>
-      </c>
-      <c r="V17" s="8" t="n">
-        <v>14470385</v>
-      </c>
-      <c r="W17" s="9" t="n">
-        <v>140333.79</v>
-      </c>
-      <c r="X17" s="10" t="n">
-        <v>0.0124</v>
-      </c>
       <c r="Y17" s="8" t="n">
-        <v>14786344</v>
+        <v>11632943</v>
       </c>
       <c r="Z17" s="9" t="n">
-        <v>145061.43</v>
+        <v>146586.71</v>
       </c>
       <c r="AA17" s="10" t="n">
-        <v>0.0126</v>
+        <v>0.0127</v>
       </c>
       <c r="AB17" s="8" t="n">
-        <v>15148311</v>
+        <v>12107943</v>
       </c>
       <c r="AC17" s="9" t="n">
-        <v>148741.27</v>
+        <v>148164.9</v>
       </c>
       <c r="AD17" s="10" t="n">
         <v>0.0124</v>
       </c>
       <c r="AE17" s="8" t="n">
-        <v>15759789</v>
+        <v>12775545</v>
       </c>
       <c r="AF17" s="9" t="n">
-        <v>153571.26</v>
+        <v>152999.93</v>
       </c>
       <c r="AG17" s="10" t="n">
         <v>0.0122</v>
       </c>
       <c r="AH17" s="8" t="n">
-        <v>17405149</v>
+        <v>13125545</v>
       </c>
       <c r="AI17" s="9" t="n">
-        <v>164043.53</v>
+        <v>165224.36</v>
       </c>
       <c r="AJ17" s="10" t="n">
-        <v>0.0126</v>
+        <v>0.0127</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
-          <t>Dr. Reddy's Laboratories Limited</t>
+          <t>Cipla Limited</t>
         </is>
       </c>
       <c r="B18" s="6" t="inlineStr">
         <is>
-          <t>INE089A01031</t>
+          <t>INE059A01026</t>
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr">
@@ -2477,100 +2453,100 @@
         </is>
       </c>
       <c r="D18" s="8" t="n">
-        <v>7388241</v>
+        <v>6223549</v>
       </c>
       <c r="E18" s="9" t="n">
-        <v>89940.75</v>
+        <v>92071.17999999999</v>
       </c>
       <c r="F18" s="10" t="n">
-        <v>0.01</v>
+        <v>0.0103</v>
       </c>
       <c r="G18" s="8" t="n">
-        <v>9911843</v>
+        <v>7755553</v>
       </c>
       <c r="H18" s="9" t="n">
-        <v>110665.73</v>
+        <v>109159.41</v>
       </c>
       <c r="I18" s="10" t="n">
+        <v>0.0124</v>
+      </c>
+      <c r="J18" s="8" t="n">
+        <v>7994194</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>115292.27</v>
+      </c>
+      <c r="L18" s="10" t="n">
+        <v>0.0123</v>
+      </c>
+      <c r="M18" s="8" t="n">
+        <v>7994194</v>
+      </c>
+      <c r="N18" s="9" t="n">
+        <v>123918</v>
+      </c>
+      <c r="O18" s="10" t="n">
         <v>0.0126</v>
       </c>
-      <c r="J18" s="8" t="n">
-        <v>10133496</v>
-      </c>
-      <c r="K18" s="9" t="n">
-        <v>115947.46</v>
-      </c>
-      <c r="L18" s="10" t="n">
-        <v>0.0124</v>
-      </c>
-      <c r="M18" s="8" t="n">
-        <v>10403670</v>
-      </c>
-      <c r="N18" s="9" t="n">
-        <v>123169.05</v>
-      </c>
-      <c r="O18" s="10" t="n">
-        <v>0.0125</v>
-      </c>
       <c r="P18" s="8" t="n">
-        <v>10341500</v>
+        <v>8881919</v>
       </c>
       <c r="Q18" s="9" t="n">
-        <v>129392.85</v>
+        <v>130182.29</v>
       </c>
       <c r="R18" s="10" t="n">
         <v>0.0125</v>
       </c>
       <c r="S18" s="8" t="n">
-        <v>10341500</v>
+        <v>9147124</v>
       </c>
       <c r="T18" s="9" t="n">
-        <v>132712.47</v>
+        <v>137746.54</v>
       </c>
       <c r="U18" s="10" t="n">
-        <v>0.012</v>
+        <v>0.0125</v>
       </c>
       <c r="V18" s="8" t="n">
-        <v>11217622</v>
+        <v>9450707</v>
       </c>
       <c r="W18" s="9" t="n">
-        <v>142497.45</v>
+        <v>146920.69</v>
       </c>
       <c r="X18" s="10" t="n">
-        <v>0.0126</v>
+        <v>0.013</v>
       </c>
       <c r="Y18" s="8" t="n">
-        <v>11632943</v>
+        <v>8991707</v>
       </c>
       <c r="Z18" s="9" t="n">
-        <v>146586.71</v>
+        <v>142914.19</v>
       </c>
       <c r="AA18" s="10" t="n">
-        <v>0.0127</v>
+        <v>0.0124</v>
       </c>
       <c r="AB18" s="8" t="n">
-        <v>12107943</v>
+        <v>9988840</v>
       </c>
       <c r="AC18" s="9" t="n">
-        <v>148164.9</v>
+        <v>150162.23</v>
       </c>
       <c r="AD18" s="10" t="n">
-        <v>0.0124</v>
+        <v>0.0125</v>
       </c>
       <c r="AE18" s="8" t="n">
-        <v>12775545</v>
+        <v>10173460</v>
       </c>
       <c r="AF18" s="9" t="n">
-        <v>152999.93</v>
+        <v>152734.15</v>
       </c>
       <c r="AG18" s="10" t="n">
-        <v>0.0122</v>
+        <v>0.0121</v>
       </c>
       <c r="AH18" s="8" t="n">
-        <v>13125545</v>
+        <v>10765866</v>
       </c>
       <c r="AI18" s="9" t="n">
-        <v>165224.36</v>
+        <v>164857.71</v>
       </c>
       <c r="AJ18" s="10" t="n">
         <v>0.0127</v>
@@ -2579,117 +2555,117 @@
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
         <is>
-          <t>Balkrishna Industries Limited</t>
+          <t>Infosys Limited</t>
         </is>
       </c>
       <c r="B19" s="6" t="inlineStr">
         <is>
-          <t>INE787D01026</t>
+          <t>INE009A01021</t>
         </is>
       </c>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>Auto Components</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D19" s="8" t="n">
-        <v>4189074</v>
+        <v>9306473</v>
       </c>
       <c r="E19" s="9" t="n">
-        <v>116089.71</v>
+        <v>174943.08</v>
       </c>
       <c r="F19" s="10" t="n">
-        <v>0.0129</v>
+        <v>0.0195</v>
       </c>
       <c r="G19" s="8" t="n">
-        <v>4189074</v>
+        <v>9306473</v>
       </c>
       <c r="H19" s="9" t="n">
-        <v>109571.51</v>
+        <v>157065.34</v>
       </c>
       <c r="I19" s="10" t="n">
-        <v>0.0125</v>
+        <v>0.0178</v>
       </c>
       <c r="J19" s="8" t="n">
-        <v>4189074</v>
+        <v>9306473</v>
       </c>
       <c r="K19" s="9" t="n">
-        <v>107022.46</v>
+        <v>146172.12</v>
       </c>
       <c r="L19" s="10" t="n">
-        <v>0.0115</v>
+        <v>0.0156</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>4189074</v>
+        <v>9306473</v>
       </c>
       <c r="N19" s="9" t="n">
-        <v>112061.92</v>
+        <v>139606.4</v>
       </c>
       <c r="O19" s="10" t="n">
-        <v>0.0114</v>
+        <v>0.0142</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>4189074</v>
+        <v>9306473</v>
       </c>
       <c r="Q19" s="9" t="n">
-        <v>103562.29</v>
+        <v>145432.25</v>
       </c>
       <c r="R19" s="10" t="n">
-        <v>0.01</v>
+        <v>0.014</v>
       </c>
       <c r="S19" s="8" t="n">
-        <v>4189074</v>
+        <v>9306473</v>
       </c>
       <c r="T19" s="9" t="n">
-        <v>102435.43</v>
+        <v>149071.08</v>
       </c>
       <c r="U19" s="10" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.0135</v>
       </c>
       <c r="V19" s="8" t="n">
-        <v>4189074</v>
+        <v>9306473</v>
       </c>
       <c r="W19" s="9" t="n">
-        <v>112108</v>
+        <v>140434.68</v>
       </c>
       <c r="X19" s="10" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.0124</v>
       </c>
       <c r="Y19" s="8" t="n">
-        <v>4189074</v>
+        <v>9306473</v>
       </c>
       <c r="Z19" s="9" t="n">
-        <v>95904.66</v>
+        <v>136767.93</v>
       </c>
       <c r="AA19" s="10" t="n">
-        <v>0.0083</v>
+        <v>0.0119</v>
       </c>
       <c r="AB19" s="8" t="n">
-        <v>4189074</v>
+        <v>9306473</v>
       </c>
       <c r="AC19" s="9" t="n">
-        <v>96130.87</v>
+        <v>134180.73</v>
       </c>
       <c r="AD19" s="10" t="n">
-        <v>0.008</v>
+        <v>0.0112</v>
       </c>
       <c r="AE19" s="8" t="n">
-        <v>4189074</v>
+        <v>9306473</v>
       </c>
       <c r="AF19" s="9" t="n">
-        <v>95502.50999999999</v>
+        <v>137949.85</v>
       </c>
       <c r="AG19" s="10" t="n">
-        <v>0.0076</v>
+        <v>0.011</v>
       </c>
       <c r="AH19" s="8" t="n">
-        <v>4189074</v>
+        <v>17621740</v>
       </c>
       <c r="AI19" s="9" t="n">
-        <v>96721.53</v>
+        <v>274916.77</v>
       </c>
       <c r="AJ19" s="10" t="n">
-        <v>0.0075</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="20">
@@ -2811,649 +2787,649 @@
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
         <is>
-          <t>Motilal Oswal Financial Services Limited</t>
+          <t>Zydus Wellness Limited</t>
         </is>
       </c>
       <c r="B21" s="6" t="inlineStr">
         <is>
-          <t>INE338I01027</t>
+          <t>INE768C01028</t>
         </is>
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>Capital Markets</t>
-        </is>
-      </c>
-      <c r="D21" s="8" t="n">
-        <v>12053879</v>
-      </c>
-      <c r="E21" s="9" t="n">
-        <v>76801.28999999999</v>
-      </c>
-      <c r="F21" s="10" t="n">
-        <v>0.0086</v>
-      </c>
-      <c r="G21" s="8" t="n">
-        <v>12053879</v>
-      </c>
-      <c r="H21" s="9" t="n">
-        <v>70937.08</v>
-      </c>
-      <c r="I21" s="10" t="n">
-        <v>0.0081</v>
-      </c>
-      <c r="J21" s="8" t="n">
-        <v>10913294</v>
-      </c>
-      <c r="K21" s="9" t="n">
-        <v>67154.95</v>
-      </c>
-      <c r="L21" s="10" t="n">
-        <v>0.0072</v>
-      </c>
-      <c r="M21" s="8" t="n">
-        <v>8585949</v>
-      </c>
-      <c r="N21" s="9" t="n">
-        <v>56044.78</v>
-      </c>
-      <c r="O21" s="10" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="P21" s="8" t="n">
-        <v>5392631</v>
-      </c>
-      <c r="Q21" s="9" t="n">
-        <v>43674.92</v>
-      </c>
-      <c r="R21" s="10" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="S21" s="8" t="n">
-        <v>591805</v>
-      </c>
-      <c r="T21" s="9" t="n">
-        <v>5149</v>
-      </c>
-      <c r="U21" s="10" t="n">
-        <v>0.0005</v>
-      </c>
+          <t>Food Products</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="10" t="n"/>
+      <c r="G21" s="8" t="n"/>
+      <c r="H21" s="9" t="n"/>
+      <c r="I21" s="10" t="n"/>
+      <c r="J21" s="8" t="n"/>
+      <c r="K21" s="9" t="n"/>
+      <c r="L21" s="10" t="n"/>
+      <c r="M21" s="8" t="n"/>
+      <c r="N21" s="9" t="n"/>
+      <c r="O21" s="10" t="n"/>
+      <c r="P21" s="8" t="n"/>
+      <c r="Q21" s="9" t="n"/>
+      <c r="R21" s="10" t="n"/>
+      <c r="S21" s="8" t="n"/>
+      <c r="T21" s="9" t="n"/>
+      <c r="U21" s="10" t="n"/>
       <c r="V21" s="8" t="n"/>
       <c r="W21" s="9" t="n"/>
       <c r="X21" s="10" t="n"/>
       <c r="Y21" s="8" t="n"/>
       <c r="Z21" s="9" t="n"/>
       <c r="AA21" s="10" t="n"/>
-      <c r="AB21" s="8" t="n"/>
-      <c r="AC21" s="9" t="n"/>
-      <c r="AD21" s="10" t="n"/>
-      <c r="AE21" s="8" t="n"/>
-      <c r="AF21" s="9" t="n"/>
-      <c r="AG21" s="10" t="n"/>
-      <c r="AH21" s="8" t="n"/>
-      <c r="AI21" s="9" t="n"/>
-      <c r="AJ21" s="10" t="n"/>
+      <c r="AB21" s="8" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="AC21" s="9" t="n">
+        <v>100584</v>
+      </c>
+      <c r="AD21" s="10" t="n">
+        <v>0.008399999999999999</v>
+      </c>
+      <c r="AE21" s="8" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="AF21" s="9" t="n">
+        <v>104852</v>
+      </c>
+      <c r="AG21" s="10" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="AH21" s="8" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="AI21" s="9" t="n">
+        <v>94699</v>
+      </c>
+      <c r="AJ21" s="10" t="n">
+        <v>0.0073</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
-          <t>Multi Commodity Exchange of India Limited</t>
+          <t>Balkrishna Industries Limited</t>
         </is>
       </c>
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>INE745G01035</t>
+          <t>INE787D01026</t>
         </is>
       </c>
       <c r="C22" s="7" t="inlineStr">
         <is>
-          <t>Capital Markets</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="D22" s="8" t="n">
-        <v>882136</v>
+        <v>4189074</v>
       </c>
       <c r="E22" s="9" t="n">
-        <v>50572.42</v>
+        <v>116089.71</v>
       </c>
       <c r="F22" s="10" t="n">
-        <v>0.0056</v>
+        <v>0.0129</v>
       </c>
       <c r="G22" s="8" t="n">
-        <v>797719</v>
+        <v>4189074</v>
       </c>
       <c r="H22" s="9" t="n">
-        <v>39819.34</v>
+        <v>109571.51</v>
       </c>
       <c r="I22" s="10" t="n">
-        <v>0.0045</v>
+        <v>0.0125</v>
       </c>
       <c r="J22" s="8" t="n">
-        <v>797719</v>
+        <v>4189074</v>
       </c>
       <c r="K22" s="9" t="n">
-        <v>42372.84</v>
+        <v>107022.46</v>
       </c>
       <c r="L22" s="10" t="n">
-        <v>0.0045</v>
+        <v>0.0115</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>797719</v>
+        <v>4189074</v>
       </c>
       <c r="N22" s="9" t="n">
-        <v>48884.22</v>
+        <v>112061.92</v>
       </c>
       <c r="O22" s="10" t="n">
-        <v>0.005</v>
+        <v>0.0114</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>797719</v>
+        <v>4189074</v>
       </c>
       <c r="Q22" s="9" t="n">
-        <v>52665.41</v>
+        <v>103562.29</v>
       </c>
       <c r="R22" s="10" t="n">
-        <v>0.0051</v>
+        <v>0.01</v>
       </c>
       <c r="S22" s="8" t="n">
-        <v>797719</v>
+        <v>4189074</v>
       </c>
       <c r="T22" s="9" t="n">
-        <v>71347.99000000001</v>
+        <v>102435.43</v>
       </c>
       <c r="U22" s="10" t="n">
-        <v>0.0065</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="V22" s="8" t="n">
-        <v>797719</v>
+        <v>4189074</v>
       </c>
       <c r="W22" s="9" t="n">
-        <v>61368.52</v>
+        <v>112108</v>
       </c>
       <c r="X22" s="10" t="n">
-        <v>0.0054</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="Y22" s="8" t="n">
-        <v>797719</v>
+        <v>4189074</v>
       </c>
       <c r="Z22" s="9" t="n">
-        <v>58951.43</v>
+        <v>95904.66</v>
       </c>
       <c r="AA22" s="10" t="n">
-        <v>0.0051</v>
+        <v>0.0083</v>
       </c>
       <c r="AB22" s="8" t="n">
-        <v>797719</v>
+        <v>4189074</v>
       </c>
       <c r="AC22" s="9" t="n">
-        <v>62190.17</v>
+        <v>96130.87</v>
       </c>
       <c r="AD22" s="10" t="n">
-        <v>0.0052</v>
+        <v>0.008</v>
       </c>
       <c r="AE22" s="8" t="n">
-        <v>797719</v>
+        <v>4189074</v>
       </c>
       <c r="AF22" s="9" t="n">
-        <v>73737.16</v>
+        <v>95502.50999999999</v>
       </c>
       <c r="AG22" s="10" t="n">
-        <v>0.0059</v>
+        <v>0.0076</v>
       </c>
       <c r="AH22" s="8" t="n">
-        <v>797719</v>
+        <v>4189074</v>
       </c>
       <c r="AI22" s="9" t="n">
-        <v>80358.22</v>
+        <v>96721.53</v>
       </c>
       <c r="AJ22" s="10" t="n">
-        <v>0.0062</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>Narayana Hrudayalaya Limited</t>
+          <t>Multi Commodity Exchange of India Limited</t>
         </is>
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>INE410P01011</t>
+          <t>INE745G01035</t>
         </is>
       </c>
       <c r="C23" s="7" t="inlineStr">
         <is>
-          <t>Healthcare Services</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D23" s="8" t="n">
-        <v>1995914</v>
+        <v>882136</v>
       </c>
       <c r="E23" s="9" t="n">
-        <v>27686.32</v>
+        <v>50572.42</v>
       </c>
       <c r="F23" s="10" t="n">
-        <v>0.0031</v>
+        <v>0.0056</v>
       </c>
       <c r="G23" s="8" t="n">
-        <v>1995914</v>
+        <v>797719</v>
       </c>
       <c r="H23" s="9" t="n">
-        <v>28830.98</v>
+        <v>39819.34</v>
       </c>
       <c r="I23" s="10" t="n">
-        <v>0.0033</v>
+        <v>0.0045</v>
       </c>
       <c r="J23" s="8" t="n">
-        <v>1995914</v>
+        <v>797719</v>
       </c>
       <c r="K23" s="9" t="n">
-        <v>33771.86</v>
+        <v>42372.84</v>
       </c>
       <c r="L23" s="10" t="n">
-        <v>0.0036</v>
+        <v>0.0045</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>1995914</v>
+        <v>797719</v>
       </c>
       <c r="N23" s="9" t="n">
-        <v>35138.07</v>
+        <v>48884.22</v>
       </c>
       <c r="O23" s="10" t="n">
-        <v>0.0036</v>
+        <v>0.005</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>1995914</v>
+        <v>797719</v>
       </c>
       <c r="Q23" s="9" t="n">
-        <v>34806.74</v>
+        <v>52665.41</v>
       </c>
       <c r="R23" s="10" t="n">
-        <v>0.0034</v>
+        <v>0.0051</v>
       </c>
       <c r="S23" s="8" t="n">
-        <v>1995914</v>
+        <v>797719</v>
       </c>
       <c r="T23" s="9" t="n">
-        <v>43319.32</v>
+        <v>71347.99000000001</v>
       </c>
       <c r="U23" s="10" t="n">
-        <v>0.0039</v>
+        <v>0.0065</v>
       </c>
       <c r="V23" s="8" t="n">
-        <v>1995914</v>
+        <v>797719</v>
       </c>
       <c r="W23" s="9" t="n">
-        <v>38225.74</v>
+        <v>61368.52</v>
       </c>
       <c r="X23" s="10" t="n">
-        <v>0.0034</v>
+        <v>0.0054</v>
       </c>
       <c r="Y23" s="8" t="n">
-        <v>1995914</v>
+        <v>797719</v>
       </c>
       <c r="Z23" s="9" t="n">
-        <v>35004.34</v>
+        <v>58951.43</v>
       </c>
       <c r="AA23" s="10" t="n">
-        <v>0.003</v>
+        <v>0.0051</v>
       </c>
       <c r="AB23" s="8" t="n">
-        <v>1995914</v>
+        <v>797719</v>
       </c>
       <c r="AC23" s="9" t="n">
-        <v>34681</v>
+        <v>62190.17</v>
       </c>
       <c r="AD23" s="10" t="n">
-        <v>0.0029</v>
+        <v>0.0052</v>
       </c>
       <c r="AE23" s="8" t="n">
-        <v>1995914</v>
+        <v>797719</v>
       </c>
       <c r="AF23" s="9" t="n">
-        <v>35076.19</v>
+        <v>73737.16</v>
       </c>
       <c r="AG23" s="10" t="n">
-        <v>0.0028</v>
+        <v>0.0059</v>
       </c>
       <c r="AH23" s="8" t="n">
-        <v>1995914</v>
+        <v>797719</v>
       </c>
       <c r="AI23" s="9" t="n">
-        <v>38830.51</v>
+        <v>80358.22</v>
       </c>
       <c r="AJ23" s="10" t="n">
-        <v>0.003</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
-          <t>Central Depository Services (India) Limited</t>
+          <t>EID Parry India Limited</t>
         </is>
       </c>
       <c r="B24" s="6" t="inlineStr">
         <is>
-          <t>INE736A01011</t>
+          <t>INE126A01031</t>
         </is>
       </c>
       <c r="C24" s="7" t="inlineStr">
         <is>
-          <t>Capital Markets</t>
+          <t>Food Products</t>
         </is>
       </c>
       <c r="D24" s="8" t="n">
-        <v>2264603</v>
+        <v>2259531</v>
       </c>
       <c r="E24" s="9" t="n">
-        <v>29659.51</v>
+        <v>18525.89</v>
       </c>
       <c r="F24" s="10" t="n">
-        <v>0.0033</v>
+        <v>0.0021</v>
       </c>
       <c r="G24" s="8" t="n">
-        <v>2264603</v>
+        <v>2609056</v>
       </c>
       <c r="H24" s="9" t="n">
-        <v>25089.54</v>
+        <v>17326.74</v>
       </c>
       <c r="I24" s="10" t="n">
-        <v>0.0029</v>
+        <v>0.002</v>
       </c>
       <c r="J24" s="8" t="n">
-        <v>2264603</v>
+        <v>2843265</v>
       </c>
       <c r="K24" s="9" t="n">
-        <v>27629.29</v>
+        <v>22336.69</v>
       </c>
       <c r="L24" s="10" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>2988209</v>
+      </c>
+      <c r="N24" s="9" t="n">
+        <v>24424.13</v>
+      </c>
+      <c r="O24" s="10" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>3243008</v>
+      </c>
+      <c r="Q24" s="9" t="n">
+        <v>30813.44</v>
+      </c>
+      <c r="R24" s="10" t="n">
         <v>0.003</v>
       </c>
-      <c r="M24" s="8" t="n">
-        <v>2264603</v>
-      </c>
-      <c r="N24" s="9" t="n">
-        <v>29892.76</v>
-      </c>
-      <c r="O24" s="10" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="P24" s="8" t="n">
-        <v>2264603</v>
-      </c>
-      <c r="Q24" s="9" t="n">
-        <v>34641.63</v>
-      </c>
-      <c r="R24" s="10" t="n">
-        <v>0.0033</v>
-      </c>
       <c r="S24" s="8" t="n">
-        <v>2264603</v>
+        <v>3516819</v>
       </c>
       <c r="T24" s="9" t="n">
-        <v>40626.98</v>
+        <v>39036.69</v>
       </c>
       <c r="U24" s="10" t="n">
-        <v>0.0037</v>
+        <v>0.0035</v>
       </c>
       <c r="V24" s="8" t="n">
-        <v>2264603</v>
+        <v>3997165</v>
       </c>
       <c r="W24" s="9" t="n">
-        <v>33534.24</v>
+        <v>49305.03</v>
       </c>
       <c r="X24" s="10" t="n">
-        <v>0.003</v>
+        <v>0.0044</v>
       </c>
       <c r="Y24" s="8" t="n">
-        <v>2264603</v>
+        <v>4433570</v>
       </c>
       <c r="Z24" s="9" t="n">
-        <v>32257.01</v>
+        <v>49913.13</v>
       </c>
       <c r="AA24" s="10" t="n">
-        <v>0.0028</v>
+        <v>0.0043</v>
       </c>
       <c r="AB24" s="8" t="n">
-        <v>2264603</v>
+        <v>4996218</v>
       </c>
       <c r="AC24" s="9" t="n">
-        <v>33031.5</v>
+        <v>51236.22</v>
       </c>
       <c r="AD24" s="10" t="n">
-        <v>0.0028</v>
+        <v>0.0043</v>
       </c>
       <c r="AE24" s="8" t="n">
-        <v>2264603</v>
+        <v>5528341</v>
       </c>
       <c r="AF24" s="9" t="n">
-        <v>35943.78</v>
+        <v>59285.93</v>
       </c>
       <c r="AG24" s="10" t="n">
-        <v>0.0029</v>
+        <v>0.0047</v>
       </c>
       <c r="AH24" s="8" t="n">
-        <v>2264603</v>
+        <v>5842830</v>
       </c>
       <c r="AI24" s="9" t="n">
-        <v>36623.16</v>
+        <v>60233.73</v>
       </c>
       <c r="AJ24" s="10" t="n">
-        <v>0.0028</v>
+        <v>0.0046</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>IPCA Laboratories Limited</t>
+          <t>Central Depository Services (India) Limited</t>
         </is>
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
-          <t>INE571A01038</t>
+          <t>INE736A01011</t>
         </is>
       </c>
       <c r="C25" s="7" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D25" s="8" t="n">
-        <v>2246361</v>
+        <v>2264603</v>
       </c>
       <c r="E25" s="9" t="n">
-        <v>32421.73</v>
+        <v>29659.51</v>
       </c>
       <c r="F25" s="10" t="n">
-        <v>0.0036</v>
+        <v>0.0033</v>
       </c>
       <c r="G25" s="8" t="n">
-        <v>1926988</v>
+        <v>2264603</v>
       </c>
       <c r="H25" s="9" t="n">
-        <v>26117.43</v>
+        <v>25089.54</v>
       </c>
       <c r="I25" s="10" t="n">
+        <v>0.0029</v>
+      </c>
+      <c r="J25" s="8" t="n">
+        <v>2264603</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>27629.29</v>
+      </c>
+      <c r="L25" s="10" t="n">
         <v>0.003</v>
       </c>
-      <c r="J25" s="8" t="n">
-        <v>1926988</v>
-      </c>
-      <c r="K25" s="9" t="n">
-        <v>28941.43</v>
-      </c>
-      <c r="L25" s="10" t="n">
-        <v>0.0031</v>
-      </c>
       <c r="M25" s="8" t="n">
-        <v>1857217</v>
+        <v>2264603</v>
       </c>
       <c r="N25" s="9" t="n">
-        <v>26023.32</v>
+        <v>29892.76</v>
       </c>
       <c r="O25" s="10" t="n">
-        <v>0.0026</v>
+        <v>0.003</v>
       </c>
       <c r="P25" s="8" t="n">
-        <v>1641095</v>
+        <v>2264603</v>
       </c>
       <c r="Q25" s="9" t="n">
-        <v>23382.32</v>
+        <v>34641.63</v>
       </c>
       <c r="R25" s="10" t="n">
-        <v>0.0023</v>
+        <v>0.0033</v>
       </c>
       <c r="S25" s="8" t="n">
-        <v>1311557</v>
+        <v>2264603</v>
       </c>
       <c r="T25" s="9" t="n">
-        <v>18228.02</v>
+        <v>40626.98</v>
       </c>
       <c r="U25" s="10" t="n">
-        <v>0.0017</v>
+        <v>0.0037</v>
       </c>
       <c r="V25" s="8" t="n">
-        <v>566216</v>
+        <v>2264603</v>
       </c>
       <c r="W25" s="9" t="n">
-        <v>8345.459999999999</v>
+        <v>33534.24</v>
       </c>
       <c r="X25" s="10" t="n">
-        <v>0.0007</v>
+        <v>0.003</v>
       </c>
       <c r="Y25" s="8" t="n">
-        <v>218075</v>
+        <v>2264603</v>
       </c>
       <c r="Z25" s="9" t="n">
-        <v>3019.03</v>
+        <v>32257.01</v>
       </c>
       <c r="AA25" s="10" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="AB25" s="8" t="n"/>
-      <c r="AC25" s="9" t="n"/>
-      <c r="AD25" s="10" t="n"/>
-      <c r="AE25" s="8" t="n"/>
-      <c r="AF25" s="9" t="n"/>
-      <c r="AG25" s="10" t="n"/>
-      <c r="AH25" s="8" t="n"/>
-      <c r="AI25" s="9" t="n"/>
-      <c r="AJ25" s="10" t="n"/>
+        <v>0.0028</v>
+      </c>
+      <c r="AB25" s="8" t="n">
+        <v>2264603</v>
+      </c>
+      <c r="AC25" s="9" t="n">
+        <v>33031.5</v>
+      </c>
+      <c r="AD25" s="10" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="AE25" s="8" t="n">
+        <v>2264603</v>
+      </c>
+      <c r="AF25" s="9" t="n">
+        <v>35943.78</v>
+      </c>
+      <c r="AG25" s="10" t="n">
+        <v>0.0029</v>
+      </c>
+      <c r="AH25" s="8" t="n">
+        <v>2264603</v>
+      </c>
+      <c r="AI25" s="9" t="n">
+        <v>36623.16</v>
+      </c>
+      <c r="AJ25" s="10" t="n">
+        <v>0.0028</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>EID Parry India Limited</t>
+          <t>Narayana Hrudayalaya Limited</t>
         </is>
       </c>
       <c r="B26" s="6" t="inlineStr">
         <is>
-          <t>INE126A01031</t>
+          <t>INE410P01011</t>
         </is>
       </c>
       <c r="C26" s="7" t="inlineStr">
         <is>
-          <t>Food Products</t>
+          <t>Healthcare Services</t>
         </is>
       </c>
       <c r="D26" s="8" t="n">
-        <v>2259531</v>
+        <v>1995914</v>
       </c>
       <c r="E26" s="9" t="n">
-        <v>18525.89</v>
+        <v>27686.32</v>
       </c>
       <c r="F26" s="10" t="n">
-        <v>0.0021</v>
+        <v>0.0031</v>
       </c>
       <c r="G26" s="8" t="n">
-        <v>2609056</v>
+        <v>1995914</v>
       </c>
       <c r="H26" s="9" t="n">
-        <v>17326.74</v>
+        <v>28830.98</v>
       </c>
       <c r="I26" s="10" t="n">
-        <v>0.002</v>
+        <v>0.0033</v>
       </c>
       <c r="J26" s="8" t="n">
-        <v>2843265</v>
+        <v>1995914</v>
       </c>
       <c r="K26" s="9" t="n">
-        <v>22336.69</v>
+        <v>33771.86</v>
       </c>
       <c r="L26" s="10" t="n">
-        <v>0.0024</v>
+        <v>0.0036</v>
       </c>
       <c r="M26" s="8" t="n">
-        <v>2988209</v>
+        <v>1995914</v>
       </c>
       <c r="N26" s="9" t="n">
-        <v>24424.13</v>
+        <v>35138.07</v>
       </c>
       <c r="O26" s="10" t="n">
-        <v>0.0025</v>
+        <v>0.0036</v>
       </c>
       <c r="P26" s="8" t="n">
-        <v>3243008</v>
+        <v>1995914</v>
       </c>
       <c r="Q26" s="9" t="n">
-        <v>30813.44</v>
+        <v>34806.74</v>
       </c>
       <c r="R26" s="10" t="n">
+        <v>0.0034</v>
+      </c>
+      <c r="S26" s="8" t="n">
+        <v>1995914</v>
+      </c>
+      <c r="T26" s="9" t="n">
+        <v>43319.32</v>
+      </c>
+      <c r="U26" s="10" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="V26" s="8" t="n">
+        <v>1995914</v>
+      </c>
+      <c r="W26" s="9" t="n">
+        <v>38225.74</v>
+      </c>
+      <c r="X26" s="10" t="n">
+        <v>0.0034</v>
+      </c>
+      <c r="Y26" s="8" t="n">
+        <v>1995914</v>
+      </c>
+      <c r="Z26" s="9" t="n">
+        <v>35004.34</v>
+      </c>
+      <c r="AA26" s="10" t="n">
         <v>0.003</v>
       </c>
-      <c r="S26" s="8" t="n">
-        <v>3516819</v>
-      </c>
-      <c r="T26" s="9" t="n">
-        <v>39036.69</v>
-      </c>
-      <c r="U26" s="10" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="V26" s="8" t="n">
-        <v>3997165</v>
-      </c>
-      <c r="W26" s="9" t="n">
-        <v>49305.03</v>
-      </c>
-      <c r="X26" s="10" t="n">
-        <v>0.0044</v>
-      </c>
-      <c r="Y26" s="8" t="n">
-        <v>4433570</v>
-      </c>
-      <c r="Z26" s="9" t="n">
-        <v>49913.13</v>
-      </c>
-      <c r="AA26" s="10" t="n">
-        <v>0.0043</v>
-      </c>
       <c r="AB26" s="8" t="n">
-        <v>4996218</v>
+        <v>1995914</v>
       </c>
       <c r="AC26" s="9" t="n">
-        <v>51236.22</v>
+        <v>34681</v>
       </c>
       <c r="AD26" s="10" t="n">
-        <v>0.0043</v>
+        <v>0.0029</v>
       </c>
       <c r="AE26" s="8" t="n">
-        <v>5528341</v>
+        <v>1995914</v>
       </c>
       <c r="AF26" s="9" t="n">
-        <v>59285.93</v>
+        <v>35076.19</v>
       </c>
       <c r="AG26" s="10" t="n">
-        <v>0.0047</v>
+        <v>0.0028</v>
       </c>
       <c r="AH26" s="8" t="n">
-        <v>5842830</v>
+        <v>1995914</v>
       </c>
       <c r="AI26" s="9" t="n">
-        <v>60233.73</v>
+        <v>38830.51</v>
       </c>
       <c r="AJ26" s="10" t="n">
-        <v>0.0046</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="27">
@@ -3691,209 +3667,209 @@
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
         <is>
-          <t>Swaraj Engines Limited</t>
+          <t>Nesco Limited</t>
         </is>
       </c>
       <c r="B29" s="6" t="inlineStr">
         <is>
-          <t>INE277A01016</t>
+          <t>INE317F01035</t>
         </is>
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>Industrial Products</t>
-        </is>
-      </c>
-      <c r="D29" s="8" t="n">
-        <v>47293</v>
-      </c>
-      <c r="E29" s="9" t="n">
-        <v>1612.64</v>
-      </c>
-      <c r="F29" s="10" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="G29" s="8" t="n">
-        <v>47293</v>
-      </c>
-      <c r="H29" s="9" t="n">
-        <v>1236.83</v>
-      </c>
-      <c r="I29" s="10" t="n">
+          <t>Commercial Services &amp; Supplies</t>
+        </is>
+      </c>
+      <c r="D29" s="8" t="n"/>
+      <c r="E29" s="9" t="n"/>
+      <c r="F29" s="10" t="n"/>
+      <c r="G29" s="8" t="n"/>
+      <c r="H29" s="9" t="n"/>
+      <c r="I29" s="10" t="n"/>
+      <c r="J29" s="8" t="n"/>
+      <c r="K29" s="9" t="n"/>
+      <c r="L29" s="10" t="n"/>
+      <c r="M29" s="8" t="n"/>
+      <c r="N29" s="9" t="n"/>
+      <c r="O29" s="10" t="n"/>
+      <c r="P29" s="8" t="n">
+        <v>89469</v>
+      </c>
+      <c r="Q29" s="9" t="n">
+        <v>828.48</v>
+      </c>
+      <c r="R29" s="10" t="n">
         <v>0.0001</v>
       </c>
-      <c r="J29" s="8" t="n">
-        <v>47293</v>
-      </c>
-      <c r="K29" s="9" t="n">
-        <v>1844.17</v>
-      </c>
-      <c r="L29" s="10" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="M29" s="8" t="n">
-        <v>47293</v>
-      </c>
-      <c r="N29" s="9" t="n">
-        <v>1925.39</v>
-      </c>
-      <c r="O29" s="10" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="P29" s="8" t="n">
-        <v>47293</v>
-      </c>
-      <c r="Q29" s="9" t="n">
-        <v>1857.76</v>
-      </c>
-      <c r="R29" s="10" t="n">
-        <v>0.0002</v>
-      </c>
       <c r="S29" s="8" t="n">
-        <v>47293</v>
+        <v>151687</v>
       </c>
       <c r="T29" s="9" t="n">
-        <v>1867.41</v>
+        <v>1766.62</v>
       </c>
       <c r="U29" s="10" t="n">
         <v>0.0002</v>
       </c>
       <c r="V29" s="8" t="n">
-        <v>47293</v>
+        <v>151687</v>
       </c>
       <c r="W29" s="9" t="n">
-        <v>1983.66</v>
+        <v>2091.16</v>
       </c>
       <c r="X29" s="10" t="n">
         <v>0.0002</v>
       </c>
       <c r="Y29" s="8" t="n">
-        <v>47293</v>
+        <v>151687</v>
       </c>
       <c r="Z29" s="9" t="n">
-        <v>1897.21</v>
+        <v>2130.6</v>
       </c>
       <c r="AA29" s="10" t="n">
         <v>0.0002</v>
       </c>
       <c r="AB29" s="8" t="n">
-        <v>47293</v>
+        <v>151687</v>
       </c>
       <c r="AC29" s="9" t="n">
-        <v>1955.38</v>
+        <v>1987.1</v>
       </c>
       <c r="AD29" s="10" t="n">
         <v>0.0002</v>
       </c>
       <c r="AE29" s="8" t="n">
-        <v>47293</v>
+        <v>151687</v>
       </c>
       <c r="AF29" s="9" t="n">
-        <v>1892.15</v>
+        <v>2076.6</v>
       </c>
       <c r="AG29" s="10" t="n">
         <v>0.0002</v>
       </c>
       <c r="AH29" s="8" t="n">
-        <v>47293</v>
+        <v>151687</v>
       </c>
       <c r="AI29" s="9" t="n">
-        <v>1764.08</v>
+        <v>1947.66</v>
       </c>
       <c r="AJ29" s="10" t="n">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
         <is>
-          <t>Bharti Airtel Limited</t>
+          <t>Swaraj Engines Limited</t>
         </is>
       </c>
       <c r="B30" s="6" t="inlineStr">
         <is>
-          <t>INE397D01024</t>
+          <t>INE277A01016</t>
         </is>
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>Telecom - Services</t>
-        </is>
-      </c>
-      <c r="D30" s="8" t="n"/>
-      <c r="E30" s="9" t="n"/>
-      <c r="F30" s="10" t="n"/>
-      <c r="G30" s="8" t="n"/>
-      <c r="H30" s="9" t="n"/>
-      <c r="I30" s="10" t="n"/>
-      <c r="J30" s="8" t="n"/>
-      <c r="K30" s="9" t="n"/>
-      <c r="L30" s="10" t="n"/>
-      <c r="M30" s="8" t="n"/>
-      <c r="N30" s="9" t="n"/>
-      <c r="O30" s="10" t="n"/>
+          <t>Industrial Products</t>
+        </is>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>47293</v>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>1612.64</v>
+      </c>
+      <c r="F30" s="10" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="G30" s="8" t="n">
+        <v>47293</v>
+      </c>
+      <c r="H30" s="9" t="n">
+        <v>1236.83</v>
+      </c>
+      <c r="I30" s="10" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J30" s="8" t="n">
+        <v>47293</v>
+      </c>
+      <c r="K30" s="9" t="n">
+        <v>1844.17</v>
+      </c>
+      <c r="L30" s="10" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="M30" s="8" t="n">
+        <v>47293</v>
+      </c>
+      <c r="N30" s="9" t="n">
+        <v>1925.39</v>
+      </c>
+      <c r="O30" s="10" t="n">
+        <v>0.0002</v>
+      </c>
       <c r="P30" s="8" t="n">
-        <v>11799076</v>
+        <v>47293</v>
       </c>
       <c r="Q30" s="9" t="n">
-        <v>219014.45</v>
+        <v>1857.76</v>
       </c>
       <c r="R30" s="10" t="n">
-        <v>0.0211</v>
+        <v>0.0002</v>
       </c>
       <c r="S30" s="8" t="n">
-        <v>20937034</v>
+        <v>47293</v>
       </c>
       <c r="T30" s="9" t="n">
-        <v>420750.64</v>
+        <v>1867.41</v>
       </c>
       <c r="U30" s="10" t="n">
-        <v>0.0381</v>
+        <v>0.0002</v>
       </c>
       <c r="V30" s="8" t="n">
-        <v>21167034</v>
+        <v>47293</v>
       </c>
       <c r="W30" s="9" t="n">
-        <v>405200.53</v>
+        <v>1983.66</v>
       </c>
       <c r="X30" s="10" t="n">
-        <v>0.0358</v>
+        <v>0.0002</v>
       </c>
       <c r="Y30" s="8" t="n">
-        <v>21167034</v>
+        <v>47293</v>
       </c>
       <c r="Z30" s="9" t="n">
-        <v>399802.94</v>
+        <v>1897.21</v>
       </c>
       <c r="AA30" s="10" t="n">
-        <v>0.0348</v>
+        <v>0.0002</v>
       </c>
       <c r="AB30" s="8" t="n">
-        <v>21167034</v>
+        <v>47293</v>
       </c>
       <c r="AC30" s="9" t="n">
-        <v>397601.57</v>
+        <v>1955.38</v>
       </c>
       <c r="AD30" s="10" t="n">
-        <v>0.0332</v>
+        <v>0.0002</v>
       </c>
       <c r="AE30" s="8" t="n">
-        <v>21167034</v>
+        <v>47293</v>
       </c>
       <c r="AF30" s="9" t="n">
-        <v>434876.71</v>
+        <v>1892.15</v>
       </c>
       <c r="AG30" s="10" t="n">
-        <v>0.0346</v>
+        <v>0.0002</v>
       </c>
       <c r="AH30" s="8" t="n">
-        <v>21167034</v>
+        <v>47293</v>
       </c>
       <c r="AI30" s="9" t="n">
-        <v>444846.39</v>
+        <v>1764.08</v>
       </c>
       <c r="AJ30" s="10" t="n">
-        <v>0.0343</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="31">
@@ -3967,147 +3943,171 @@
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
-          <t>Nesco Limited</t>
+          <t>IPCA Laboratories Limited</t>
         </is>
       </c>
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>INE317F01035</t>
+          <t>INE571A01038</t>
         </is>
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies</t>
-        </is>
-      </c>
-      <c r="D32" s="8" t="n"/>
-      <c r="E32" s="9" t="n"/>
-      <c r="F32" s="10" t="n"/>
-      <c r="G32" s="8" t="n"/>
-      <c r="H32" s="9" t="n"/>
-      <c r="I32" s="10" t="n"/>
-      <c r="J32" s="8" t="n"/>
-      <c r="K32" s="9" t="n"/>
-      <c r="L32" s="10" t="n"/>
-      <c r="M32" s="8" t="n"/>
-      <c r="N32" s="9" t="n"/>
-      <c r="O32" s="10" t="n"/>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
+        </is>
+      </c>
+      <c r="D32" s="8" t="n">
+        <v>2246361</v>
+      </c>
+      <c r="E32" s="9" t="n">
+        <v>32421.73</v>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>1926988</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>26117.43</v>
+      </c>
+      <c r="I32" s="10" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="J32" s="8" t="n">
+        <v>1926988</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>28941.43</v>
+      </c>
+      <c r="L32" s="10" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="M32" s="8" t="n">
+        <v>1857217</v>
+      </c>
+      <c r="N32" s="9" t="n">
+        <v>26023.32</v>
+      </c>
+      <c r="O32" s="10" t="n">
+        <v>0.0026</v>
+      </c>
       <c r="P32" s="8" t="n">
-        <v>89469</v>
+        <v>1641095</v>
       </c>
       <c r="Q32" s="9" t="n">
-        <v>828.48</v>
+        <v>23382.32</v>
       </c>
       <c r="R32" s="10" t="n">
-        <v>0.0001</v>
+        <v>0.0023</v>
       </c>
       <c r="S32" s="8" t="n">
-        <v>151687</v>
+        <v>1311557</v>
       </c>
       <c r="T32" s="9" t="n">
-        <v>1766.62</v>
+        <v>18228.02</v>
       </c>
       <c r="U32" s="10" t="n">
-        <v>0.0002</v>
+        <v>0.0017</v>
       </c>
       <c r="V32" s="8" t="n">
-        <v>151687</v>
+        <v>566216</v>
       </c>
       <c r="W32" s="9" t="n">
-        <v>2091.16</v>
+        <v>8345.459999999999</v>
       </c>
       <c r="X32" s="10" t="n">
-        <v>0.0002</v>
+        <v>0.0007</v>
       </c>
       <c r="Y32" s="8" t="n">
-        <v>151687</v>
+        <v>218075</v>
       </c>
       <c r="Z32" s="9" t="n">
-        <v>2130.6</v>
+        <v>3019.03</v>
       </c>
       <c r="AA32" s="10" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="AB32" s="8" t="n">
-        <v>151687</v>
-      </c>
-      <c r="AC32" s="9" t="n">
-        <v>1987.1</v>
-      </c>
-      <c r="AD32" s="10" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="AE32" s="8" t="n">
-        <v>151687</v>
-      </c>
-      <c r="AF32" s="9" t="n">
-        <v>2076.6</v>
-      </c>
-      <c r="AG32" s="10" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="AH32" s="8" t="n">
-        <v>151687</v>
-      </c>
-      <c r="AI32" s="9" t="n">
-        <v>1947.66</v>
-      </c>
-      <c r="AJ32" s="10" t="n">
-        <v>0.0002</v>
-      </c>
+        <v>0.0003</v>
+      </c>
+      <c r="AB32" s="8" t="n"/>
+      <c r="AC32" s="9" t="n"/>
+      <c r="AD32" s="10" t="n"/>
+      <c r="AE32" s="8" t="n"/>
+      <c r="AF32" s="9" t="n"/>
+      <c r="AG32" s="10" t="n"/>
+      <c r="AH32" s="8" t="n"/>
+      <c r="AI32" s="9" t="n"/>
+      <c r="AJ32" s="10" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
         <is>
-          <t>ITC Hotels Limited</t>
+          <t>Motilal Oswal Financial Services Limited</t>
         </is>
       </c>
       <c r="B33" s="6" t="inlineStr">
         <is>
-          <t>INE379A01028</t>
+          <t>INE338I01027</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>Leisure Services</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D33" s="8" t="n">
-        <v>9899412</v>
+        <v>12053879</v>
       </c>
       <c r="E33" s="9" t="n">
-        <v>16131.09</v>
+        <v>76801.28999999999</v>
       </c>
       <c r="F33" s="10" t="n">
-        <v>0.0018</v>
+        <v>0.0086</v>
       </c>
       <c r="G33" s="8" t="n">
-        <v>9899412</v>
+        <v>12053879</v>
       </c>
       <c r="H33" s="9" t="n">
-        <v>16216.23</v>
+        <v>70937.08</v>
       </c>
       <c r="I33" s="10" t="n">
-        <v>0.0018</v>
+        <v>0.0081</v>
       </c>
       <c r="J33" s="8" t="n">
-        <v>9899412</v>
+        <v>10913294</v>
       </c>
       <c r="K33" s="9" t="n">
-        <v>19552.33</v>
+        <v>67154.95</v>
       </c>
       <c r="L33" s="10" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="M33" s="8" t="n"/>
-      <c r="N33" s="9" t="n"/>
-      <c r="O33" s="10" t="n"/>
-      <c r="P33" s="8" t="n"/>
-      <c r="Q33" s="9" t="n"/>
-      <c r="R33" s="10" t="n"/>
-      <c r="S33" s="8" t="n"/>
-      <c r="T33" s="9" t="n"/>
-      <c r="U33" s="10" t="n"/>
+        <v>0.0072</v>
+      </c>
+      <c r="M33" s="8" t="n">
+        <v>8585949</v>
+      </c>
+      <c r="N33" s="9" t="n">
+        <v>56044.78</v>
+      </c>
+      <c r="O33" s="10" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="P33" s="8" t="n">
+        <v>5392631</v>
+      </c>
+      <c r="Q33" s="9" t="n">
+        <v>43674.92</v>
+      </c>
+      <c r="R33" s="10" t="n">
+        <v>0.0042</v>
+      </c>
+      <c r="S33" s="8" t="n">
+        <v>591805</v>
+      </c>
+      <c r="T33" s="9" t="n">
+        <v>5149</v>
+      </c>
+      <c r="U33" s="10" t="n">
+        <v>0.0005</v>
+      </c>
       <c r="V33" s="8" t="n"/>
       <c r="W33" s="9" t="n"/>
       <c r="X33" s="10" t="n"/>
@@ -4127,28 +4127,46 @@
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
-          <t>Zydus Wellness Limited</t>
+          <t>ITC Hotels Limited</t>
         </is>
       </c>
       <c r="B34" s="6" t="inlineStr">
         <is>
-          <t>INE768C01028</t>
+          <t>INE379A01028</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>Food Products</t>
-        </is>
-      </c>
-      <c r="D34" s="8" t="n"/>
-      <c r="E34" s="9" t="n"/>
-      <c r="F34" s="10" t="n"/>
-      <c r="G34" s="8" t="n"/>
-      <c r="H34" s="9" t="n"/>
-      <c r="I34" s="10" t="n"/>
-      <c r="J34" s="8" t="n"/>
-      <c r="K34" s="9" t="n"/>
-      <c r="L34" s="10" t="n"/>
+          <t>Leisure Services</t>
+        </is>
+      </c>
+      <c r="D34" s="8" t="n">
+        <v>9899412</v>
+      </c>
+      <c r="E34" s="9" t="n">
+        <v>16131.09</v>
+      </c>
+      <c r="F34" s="10" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>9899412</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>16216.23</v>
+      </c>
+      <c r="I34" s="10" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="J34" s="8" t="n">
+        <v>9899412</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>19552.33</v>
+      </c>
+      <c r="L34" s="10" t="n">
+        <v>0.0021</v>
+      </c>
       <c r="M34" s="8" t="n"/>
       <c r="N34" s="9" t="n"/>
       <c r="O34" s="10" t="n"/>
@@ -4164,33 +4182,15 @@
       <c r="Y34" s="8" t="n"/>
       <c r="Z34" s="9" t="n"/>
       <c r="AA34" s="10" t="n"/>
-      <c r="AB34" s="8" t="n">
-        <v>22000000</v>
-      </c>
-      <c r="AC34" s="9" t="n">
-        <v>100584</v>
-      </c>
-      <c r="AD34" s="10" t="n">
-        <v>0.008399999999999999</v>
-      </c>
-      <c r="AE34" s="8" t="n">
-        <v>22000000</v>
-      </c>
-      <c r="AF34" s="9" t="n">
-        <v>104852</v>
-      </c>
-      <c r="AG34" s="10" t="n">
-        <v>0.0083</v>
-      </c>
-      <c r="AH34" s="8" t="n">
-        <v>22000000</v>
-      </c>
-      <c r="AI34" s="9" t="n">
-        <v>94699</v>
-      </c>
-      <c r="AJ34" s="10" t="n">
-        <v>0.0073</v>
-      </c>
+      <c r="AB34" s="8" t="n"/>
+      <c r="AC34" s="9" t="n"/>
+      <c r="AD34" s="10" t="n"/>
+      <c r="AE34" s="8" t="n"/>
+      <c r="AF34" s="9" t="n"/>
+      <c r="AG34" s="10" t="n"/>
+      <c r="AH34" s="8" t="n"/>
+      <c r="AI34" s="9" t="n"/>
+      <c r="AJ34" s="10" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
@@ -4352,7 +4352,7 @@
         <v>756845974</v>
       </c>
       <c r="Q37" s="14" t="n">
-        <v>6714757.130000001</v>
+        <v>6714757.130000002</v>
       </c>
       <c r="R37" s="15" t="n">
         <v>0.6467999999999998</v>
@@ -4361,7 +4361,7 @@
         <v>799425942</v>
       </c>
       <c r="T37" s="14" t="n">
-        <v>7347454.07</v>
+        <v>7347454.069999999</v>
       </c>
       <c r="U37" s="15" t="n">
         <v>0.6657999999999999</v>
@@ -4370,16 +4370,16 @@
         <v>819556049</v>
       </c>
       <c r="W37" s="14" t="n">
-        <v>7290583.900000002</v>
+        <v>7290583.900000001</v>
       </c>
       <c r="X37" s="15" t="n">
-        <v>0.6436999999999999</v>
+        <v>0.6436999999999998</v>
       </c>
       <c r="Y37" s="13" t="n">
         <v>927478800</v>
       </c>
       <c r="Z37" s="14" t="n">
-        <v>7320811.489999999</v>
+        <v>7320811.49</v>
       </c>
       <c r="AA37" s="15" t="n">
         <v>0.6363999999999999</v>
